--- a/data/GBIF_cat.xlsx
+++ b/data/GBIF_cat.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.grainger\Documents\Projects_in_development\SensitiveData\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6566EB01-1A98-4527-BD08-6F5184DF4998}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A614A4-DCEA-47A8-ADC9-0B8E9102F0B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41A9A7A6-CDD4-4E87-8B5D-EFC74508BDF7}"/>
+    <workbookView xWindow="2232" yWindow="1140" windowWidth="12276" windowHeight="8964" xr2:uid="{41A9A7A6-CDD4-4E87-8B5D-EFC74508BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -621,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D005-32F9-43E7-8769-E42C3C7E6B92}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,18 +1054,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB65AE01-3EDC-4A6F-A8BE-E5D6D26FB467}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>